--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2020-12-26</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -194,6 +197,12 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -612,7 +621,7 @@
         <v>57.48</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.76</v>
@@ -629,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -641,7 +650,7 @@
         <v>5.48</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -661,7 +670,7 @@
         <v>62.95</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -681,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -701,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -721,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -741,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -761,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -781,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -801,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -821,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -861,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -881,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -901,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -941,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -961,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -981,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1001,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1041,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1061,7 +1070,7 @@
         <v>108.44</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1081,7 +1090,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1101,7 +1110,7 @@
         <v>65.73</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1121,7 +1130,7 @@
         <v>38.96</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1141,7 +1150,7 @@
         <v>73.78</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1161,7 +1170,7 @@
         <v>46.62</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1181,7 +1190,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1201,7 +1210,7 @@
         <v>33.68</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1221,7 +1230,7 @@
         <v>36.6</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1241,7 +1250,7 @@
         <v>71.81</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1261,7 +1270,7 @@
         <v>122.14</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1281,7 +1290,7 @@
         <v>156.7</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1301,7 +1310,7 @@
         <v>210.95</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1321,7 +1330,7 @@
         <v>271.75</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1341,7 +1350,7 @@
         <v>294.62</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1361,7 +1370,7 @@
         <v>313.67</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1381,7 +1390,7 @@
         <v>283.89</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1401,7 +1410,7 @@
         <v>178.82</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1421,7 +1430,7 @@
         <v>51.88</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1441,7 +1450,7 @@
         <v>25.25</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1461,7 +1470,7 @@
         <v>116.06</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1469,7 +1478,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1481,7 +1490,7 @@
         <v>196.8</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J45">
         <v>196.8</v>
@@ -1495,13 +1504,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>94.56999999999999</v>
       </c>
       <c r="D46">
         <v>342.94</v>
       </c>
+      <c r="E46">
+        <v>248.37</v>
+      </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="J46">
+        <v>222.59</v>
+      </c>
+      <c r="K46">
+        <v>211.04</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1509,13 +1530,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>331.1</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1523,27 +1544,106 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>350.08</v>
       </c>
       <c r="F48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
       </c>
       <c r="D49">
         <v>365.87</v>
       </c>
       <c r="F49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>265.31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50">
+        <v>0.72</v>
+      </c>
+      <c r="H50">
+        <v>249.91</v>
+      </c>
+      <c r="I50">
+        <v>236.34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>267.64</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
         <v>60</v>
+      </c>
+      <c r="D52">
+        <v>258.77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>248.05</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>215.83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>2021-01-09</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -621,7 +624,7 @@
         <v>57.48</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.76</v>
@@ -638,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -650,7 +653,7 @@
         <v>5.48</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -670,7 +673,7 @@
         <v>62.95</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -690,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -730,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -750,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -790,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -810,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -890,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -930,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -950,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -970,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1070,7 +1073,7 @@
         <v>108.44</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1090,7 +1093,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1110,7 +1113,7 @@
         <v>65.73</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1130,7 +1133,7 @@
         <v>38.96</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1150,7 +1153,7 @@
         <v>73.78</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1170,7 +1173,7 @@
         <v>46.62</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1190,7 +1193,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1210,7 +1213,7 @@
         <v>33.68</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1230,7 +1233,7 @@
         <v>36.6</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1250,7 +1253,7 @@
         <v>71.81</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1270,7 +1273,7 @@
         <v>122.14</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1290,7 +1293,7 @@
         <v>156.7</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1310,7 +1313,7 @@
         <v>210.95</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1330,7 +1333,7 @@
         <v>271.75</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1350,7 +1353,7 @@
         <v>294.62</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1370,7 +1373,7 @@
         <v>313.67</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1390,7 +1393,7 @@
         <v>283.89</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1410,7 +1413,7 @@
         <v>178.82</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1418,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1430,7 +1433,7 @@
         <v>51.88</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1438,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1450,7 +1453,7 @@
         <v>25.25</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1458,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1470,7 +1473,7 @@
         <v>116.06</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1478,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1490,7 +1493,7 @@
         <v>196.8</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J45">
         <v>196.8</v>
@@ -1504,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1516,7 +1519,7 @@
         <v>248.37</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J46">
         <v>222.59</v>
@@ -1530,13 +1533,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>331.1</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1544,53 +1547,65 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>350.08</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49">
         <v>365.87</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
       </c>
+      <c r="C50">
+        <v>94.56999999999999</v>
+      </c>
       <c r="D50">
-        <v>265.31</v>
+        <v>342.64</v>
+      </c>
+      <c r="E50">
+        <v>248.07</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G50">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="H50">
-        <v>249.91</v>
+        <v>155.25</v>
       </c>
       <c r="I50">
-        <v>236.34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>191.62</v>
+      </c>
+      <c r="J50">
+        <v>231.08</v>
+      </c>
+      <c r="K50">
+        <v>228.13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1598,13 +1613,13 @@
         <v>59</v>
       </c>
       <c r="D51">
-        <v>267.64</v>
+        <v>338.95</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1612,13 +1627,13 @@
         <v>60</v>
       </c>
       <c r="D52">
-        <v>258.77</v>
+        <v>320.85</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1626,13 +1641,13 @@
         <v>61</v>
       </c>
       <c r="D53">
-        <v>248.05</v>
+        <v>333.87</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1640,10 +1655,89 @@
         <v>62</v>
       </c>
       <c r="D54">
+        <v>347.22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>265.31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55">
+        <v>0.72</v>
+      </c>
+      <c r="H55">
+        <v>249.91</v>
+      </c>
+      <c r="I55">
+        <v>236.34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56">
+        <v>267.64</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57">
+        <v>258.77</v>
+      </c>
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58">
+        <v>248.05</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59">
         <v>215.83</v>
       </c>
-      <c r="F54" t="s">
-        <v>63</v>
+      <c r="F59" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -624,7 +630,7 @@
         <v>57.48</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0.76</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -653,7 +659,7 @@
         <v>5.48</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -673,7 +679,7 @@
         <v>62.95</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1073,7 +1079,7 @@
         <v>108.44</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1093,7 +1099,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1113,7 +1119,7 @@
         <v>65.73</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1133,7 +1139,7 @@
         <v>38.96</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1153,7 +1159,7 @@
         <v>73.78</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1173,7 +1179,7 @@
         <v>46.62</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1193,7 +1199,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1213,7 +1219,7 @@
         <v>33.68</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1233,7 +1239,7 @@
         <v>36.6</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1253,7 +1259,7 @@
         <v>71.81</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1273,7 +1279,7 @@
         <v>122.14</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1293,7 +1299,7 @@
         <v>156.7</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1313,7 +1319,7 @@
         <v>210.95</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1333,7 +1339,7 @@
         <v>271.75</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1353,7 +1359,7 @@
         <v>294.62</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1373,7 +1379,7 @@
         <v>313.67</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1393,7 +1399,7 @@
         <v>283.89</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1413,7 +1419,7 @@
         <v>178.82</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1433,7 +1439,7 @@
         <v>51.88</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1453,7 +1459,7 @@
         <v>25.25</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1461,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1473,7 +1479,7 @@
         <v>116.06</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1481,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1493,7 +1499,7 @@
         <v>196.8</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>196.8</v>
@@ -1507,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1519,7 +1525,7 @@
         <v>248.37</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46">
         <v>222.59</v>
@@ -1533,13 +1539,25 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>88.14</v>
       </c>
       <c r="D47">
         <v>331.1</v>
       </c>
+      <c r="E47">
+        <v>242.96</v>
+      </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J47">
+        <v>229.38</v>
+      </c>
+      <c r="K47">
+        <v>232.57</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1547,13 +1565,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>350.08</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1561,13 +1579,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>365.87</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1575,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1587,7 +1605,7 @@
         <v>248.07</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G50">
         <v>0.8</v>
@@ -1599,10 +1617,10 @@
         <v>191.62</v>
       </c>
       <c r="J50">
-        <v>231.08</v>
+        <v>234.05</v>
       </c>
       <c r="K50">
-        <v>228.13</v>
+        <v>240.01</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1610,13 +1628,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>88.14</v>
       </c>
       <c r="D51">
         <v>338.95</v>
       </c>
+      <c r="E51">
+        <v>250.81</v>
+      </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J51">
+        <v>237.4</v>
+      </c>
+      <c r="K51">
+        <v>248.92</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1624,13 +1654,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52">
         <v>320.85</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1638,13 +1668,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>333.87</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1652,13 +1682,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54">
         <v>347.22</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1666,13 +1696,19 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>88.14</v>
       </c>
       <c r="D55">
         <v>265.31</v>
       </c>
+      <c r="E55">
+        <v>177.17</v>
+      </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G55">
         <v>0.72</v>
@@ -1682,6 +1718,12 @@
       </c>
       <c r="I55">
         <v>236.34</v>
+      </c>
+      <c r="J55">
+        <v>227.36</v>
+      </c>
+      <c r="K55">
+        <v>240.93</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1689,13 +1731,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56">
         <v>267.64</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1703,13 +1745,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>258.77</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1717,13 +1759,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58">
         <v>248.05</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1731,13 +1773,92 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <v>215.83</v>
       </c>
       <c r="F59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>345.75</v>
+      </c>
+      <c r="F60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60">
+        <v>0.66</v>
+      </c>
+      <c r="H60">
+        <v>276.6</v>
+      </c>
+      <c r="I60">
+        <v>243.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61">
+        <v>286.89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62">
+        <v>236.86</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
         <v>64</v>
+      </c>
+      <c r="D63">
+        <v>185.08</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>172.15</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -630,7 +636,7 @@
         <v>57.48</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0.76</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -659,7 +665,7 @@
         <v>5.48</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -679,7 +685,7 @@
         <v>62.95</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1079,7 +1085,7 @@
         <v>108.44</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1099,7 +1105,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1119,7 +1125,7 @@
         <v>65.73</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1139,7 +1145,7 @@
         <v>38.96</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1159,7 +1165,7 @@
         <v>73.78</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1179,7 +1185,7 @@
         <v>46.62</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1199,7 +1205,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1219,7 +1225,7 @@
         <v>33.68</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1239,7 +1245,7 @@
         <v>36.6</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1259,7 +1265,7 @@
         <v>71.81</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1279,7 +1285,7 @@
         <v>122.14</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1299,7 +1305,7 @@
         <v>156.7</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1319,7 +1325,7 @@
         <v>210.95</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1339,7 +1345,7 @@
         <v>271.75</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1359,7 +1365,7 @@
         <v>294.62</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1379,7 +1385,7 @@
         <v>313.67</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1399,7 +1405,7 @@
         <v>283.89</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1419,7 +1425,7 @@
         <v>178.82</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1427,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1439,7 +1445,7 @@
         <v>51.88</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1447,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1459,7 +1465,7 @@
         <v>25.25</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1479,7 +1485,7 @@
         <v>116.06</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1487,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1499,7 +1505,7 @@
         <v>196.8</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>196.8</v>
@@ -1513,7 +1519,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1525,7 +1531,7 @@
         <v>248.37</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J46">
         <v>222.59</v>
@@ -1539,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1551,7 +1557,7 @@
         <v>242.96</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J47">
         <v>229.38</v>
@@ -1565,13 +1571,25 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C48">
+        <v>82.43000000000001</v>
       </c>
       <c r="D48">
         <v>350.08</v>
       </c>
+      <c r="E48">
+        <v>267.65</v>
+      </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J48">
+        <v>238.95</v>
+      </c>
+      <c r="K48">
+        <v>255.61</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1579,13 +1597,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>365.87</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1593,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1605,7 +1623,7 @@
         <v>248.07</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50">
         <v>0.8</v>
@@ -1617,10 +1635,10 @@
         <v>191.62</v>
       </c>
       <c r="J50">
-        <v>234.05</v>
+        <v>240.77</v>
       </c>
       <c r="K50">
-        <v>240.01</v>
+        <v>256.95</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1628,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1640,13 +1658,13 @@
         <v>250.81</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J51">
-        <v>237.4</v>
+        <v>242.44</v>
       </c>
       <c r="K51">
-        <v>248.92</v>
+        <v>261.55</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1654,13 +1672,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C52">
+        <v>82.43000000000001</v>
       </c>
       <c r="D52">
         <v>320.85</v>
       </c>
+      <c r="E52">
+        <v>238.42</v>
+      </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J52">
+        <v>241.87</v>
+      </c>
+      <c r="K52">
+        <v>265.5</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1668,13 +1698,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53">
         <v>333.87</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1682,13 +1712,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54">
         <v>347.22</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1696,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>88.14</v>
@@ -1708,7 +1738,7 @@
         <v>177.17</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>0.72</v>
@@ -1720,10 +1750,10 @@
         <v>236.34</v>
       </c>
       <c r="J55">
-        <v>227.36</v>
+        <v>233.78</v>
       </c>
       <c r="K55">
-        <v>240.93</v>
+        <v>257.44</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1731,13 +1761,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>82.43000000000001</v>
       </c>
       <c r="D56">
         <v>267.64</v>
       </c>
+      <c r="E56">
+        <v>185.22</v>
+      </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J56">
+        <v>228.39</v>
+      </c>
+      <c r="K56">
+        <v>253.8</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1745,13 +1787,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>258.77</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1759,13 +1801,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>248.05</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1773,13 +1815,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59">
         <v>215.83</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1787,13 +1829,19 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>82.43000000000001</v>
       </c>
       <c r="D60">
         <v>345.75</v>
       </c>
+      <c r="E60">
+        <v>263.32</v>
+      </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G60">
         <v>0.66</v>
@@ -1803,6 +1851,12 @@
       </c>
       <c r="I60">
         <v>243.8</v>
+      </c>
+      <c r="J60">
+        <v>231.88</v>
+      </c>
+      <c r="K60">
+        <v>260.37</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1810,13 +1864,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61">
         <v>286.89</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1824,13 +1878,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62">
         <v>236.86</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1838,13 +1892,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D63">
         <v>185.08</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1852,13 +1906,92 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D64">
         <v>172.15</v>
       </c>
       <c r="F64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>214.55</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65">
+        <v>0.41</v>
+      </c>
+      <c r="H65">
+        <v>192.15</v>
+      </c>
+      <c r="I65">
+        <v>158.39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>176.54</v>
+      </c>
+      <c r="F66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>132.3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
         <v>66</v>
+      </c>
+      <c r="D68">
+        <v>96.02</v>
+      </c>
+      <c r="F68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>125.97</v>
+      </c>
+      <c r="F69" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -636,7 +642,7 @@
         <v>57.48</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.76</v>
@@ -653,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -665,7 +671,7 @@
         <v>5.48</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -685,7 +691,7 @@
         <v>62.95</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -725,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -765,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -785,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -805,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -825,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -905,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -945,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -985,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -1005,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1025,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1065,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1085,7 +1091,7 @@
         <v>108.44</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1105,7 +1111,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1125,7 +1131,7 @@
         <v>65.73</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1145,7 +1151,7 @@
         <v>38.96</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1165,7 +1171,7 @@
         <v>73.78</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1185,7 +1191,7 @@
         <v>46.62</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1205,7 +1211,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1225,7 +1231,7 @@
         <v>33.68</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1245,7 +1251,7 @@
         <v>36.6</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1265,7 +1271,7 @@
         <v>71.81</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1285,7 +1291,7 @@
         <v>122.14</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1305,7 +1311,7 @@
         <v>156.7</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1325,7 +1331,7 @@
         <v>210.95</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1345,7 +1351,7 @@
         <v>271.75</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1365,7 +1371,7 @@
         <v>294.62</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1385,7 +1391,7 @@
         <v>313.67</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1405,7 +1411,7 @@
         <v>283.89</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1425,7 +1431,7 @@
         <v>178.82</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1433,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1445,7 +1451,7 @@
         <v>51.88</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1453,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1465,7 +1471,7 @@
         <v>25.25</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1473,7 +1479,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1485,7 +1491,7 @@
         <v>116.06</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1493,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1505,7 +1511,7 @@
         <v>196.8</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>196.8</v>
@@ -1519,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1531,7 +1537,7 @@
         <v>248.37</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J46">
         <v>222.59</v>
@@ -1545,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1557,7 +1563,7 @@
         <v>242.96</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J47">
         <v>229.38</v>
@@ -1571,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>82.43000000000001</v>
@@ -1583,7 +1589,7 @@
         <v>267.65</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J48">
         <v>238.95</v>
@@ -1597,13 +1603,25 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>85</v>
       </c>
       <c r="D49">
         <v>365.87</v>
       </c>
+      <c r="E49">
+        <v>280.87</v>
+      </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J49">
+        <v>247.33</v>
+      </c>
+      <c r="K49">
+        <v>270.57</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1611,7 +1629,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1623,7 +1641,7 @@
         <v>248.07</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>0.8</v>
@@ -1635,10 +1653,10 @@
         <v>191.62</v>
       </c>
       <c r="J50">
-        <v>240.77</v>
+        <v>247.46</v>
       </c>
       <c r="K50">
-        <v>256.95</v>
+        <v>269.2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1646,7 +1664,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1658,13 +1676,13 @@
         <v>250.81</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J51">
-        <v>242.44</v>
+        <v>247.93</v>
       </c>
       <c r="K51">
-        <v>261.55</v>
+        <v>271.39</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1672,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1684,13 +1702,13 @@
         <v>238.42</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J52">
-        <v>241.87</v>
+        <v>246.75</v>
       </c>
       <c r="K52">
-        <v>265.5</v>
+        <v>273.62</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1698,13 +1716,25 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>85</v>
       </c>
       <c r="D53">
         <v>333.87</v>
       </c>
+      <c r="E53">
+        <v>248.87</v>
+      </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J53">
+        <v>246.98</v>
+      </c>
+      <c r="K53">
+        <v>275.75</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1712,13 +1742,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D54">
         <v>347.22</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1726,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55">
         <v>88.14</v>
@@ -1738,7 +1768,7 @@
         <v>177.17</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>0.72</v>
@@ -1750,10 +1780,10 @@
         <v>236.34</v>
       </c>
       <c r="J55">
-        <v>233.78</v>
+        <v>240</v>
       </c>
       <c r="K55">
-        <v>257.44</v>
+        <v>268.28</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1761,7 +1791,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>82.43000000000001</v>
@@ -1773,13 +1803,13 @@
         <v>185.22</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>228.39</v>
+        <v>235.02</v>
       </c>
       <c r="K56">
-        <v>253.8</v>
+        <v>264.32</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1787,13 +1817,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C57">
+        <v>85</v>
       </c>
       <c r="D57">
         <v>258.77</v>
       </c>
+      <c r="E57">
+        <v>173.77</v>
+      </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J57">
+        <v>229.92</v>
+      </c>
+      <c r="K57">
+        <v>259.33</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1801,13 +1843,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58">
         <v>248.05</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1815,13 +1857,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59">
         <v>215.83</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1829,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1841,7 +1883,7 @@
         <v>263.32</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G60">
         <v>0.66</v>
@@ -1853,10 +1895,10 @@
         <v>243.8</v>
       </c>
       <c r="J60">
-        <v>231.88</v>
+        <v>232.49</v>
       </c>
       <c r="K60">
-        <v>260.37</v>
+        <v>263.95</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1864,13 +1906,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>85</v>
       </c>
       <c r="D61">
         <v>286.89</v>
       </c>
+      <c r="E61">
+        <v>201.89</v>
+      </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J61">
+        <v>230.3</v>
+      </c>
+      <c r="K61">
+        <v>262.06</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1878,13 +1932,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62">
         <v>236.86</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1892,13 +1946,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D63">
         <v>185.08</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1906,27 +1960,33 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D64">
         <v>172.15</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>85</v>
       </c>
       <c r="D65">
         <v>214.55</v>
       </c>
+      <c r="E65">
+        <v>129.55</v>
+      </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G65">
         <v>0.41</v>
@@ -1937,61 +1997,146 @@
       <c r="I65">
         <v>158.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65">
+        <v>223.58</v>
+      </c>
+      <c r="K65">
+        <v>254.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>176.54</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67">
         <v>132.3</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D68">
         <v>96.02</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D69">
         <v>125.97</v>
       </c>
       <c r="F69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70">
+        <v>196.35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70">
+        <v>0.32</v>
+      </c>
+      <c r="H70">
+        <v>139.97</v>
+      </c>
+      <c r="I70">
+        <v>118.98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71">
+        <v>106.53</v>
+      </c>
+      <c r="F71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
         <v>68</v>
+      </c>
+      <c r="D73">
+        <v>121.82</v>
+      </c>
+      <c r="F73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74">
+        <v>114.23</v>
+      </c>
+      <c r="F74" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="75">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,12 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -224,6 +230,12 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -584,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +642,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -642,7 +654,7 @@
         <v>57.48</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <v>0.76</v>
@@ -659,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -671,7 +683,7 @@
         <v>5.48</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -679,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -691,7 +703,7 @@
         <v>62.95</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -699,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -711,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -719,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -731,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -751,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -759,7 +771,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -771,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -779,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -791,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -799,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -811,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -831,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -851,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -871,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -879,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -891,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -911,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -931,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -939,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -951,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -959,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -971,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -991,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -1011,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1019,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1031,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1039,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1051,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1059,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1071,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1079,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1091,7 +1103,7 @@
         <v>108.44</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1099,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1111,7 +1123,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1119,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1131,7 +1143,7 @@
         <v>65.73</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1139,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1151,7 +1163,7 @@
         <v>38.96</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1159,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1171,7 +1183,7 @@
         <v>73.78</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1179,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1191,7 +1203,7 @@
         <v>46.62</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1199,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1211,7 +1223,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1219,7 +1231,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1231,7 +1243,7 @@
         <v>33.68</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1239,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1251,7 +1263,7 @@
         <v>36.6</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1259,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1271,7 +1283,7 @@
         <v>71.81</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1279,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1291,7 +1303,7 @@
         <v>122.14</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1299,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1311,7 +1323,7 @@
         <v>156.7</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1319,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1331,7 +1343,7 @@
         <v>210.95</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1339,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1351,7 +1363,7 @@
         <v>271.75</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1359,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1371,7 +1383,7 @@
         <v>294.62</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1379,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1391,7 +1403,7 @@
         <v>313.67</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1399,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1411,7 +1423,7 @@
         <v>283.89</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1419,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1431,7 +1443,7 @@
         <v>178.82</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1439,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1451,7 +1463,7 @@
         <v>51.88</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1459,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1471,7 +1483,7 @@
         <v>25.25</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1491,7 +1503,7 @@
         <v>116.06</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1499,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1511,7 +1523,7 @@
         <v>196.8</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J45">
         <v>196.8</v>
@@ -1525,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1537,7 +1549,7 @@
         <v>248.37</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J46">
         <v>222.59</v>
@@ -1551,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1563,7 +1575,7 @@
         <v>242.96</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J47">
         <v>229.38</v>
@@ -1577,7 +1589,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>82.43000000000001</v>
@@ -1589,7 +1601,7 @@
         <v>267.65</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J48">
         <v>238.95</v>
@@ -1603,7 +1615,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C49">
         <v>85</v>
@@ -1615,7 +1627,7 @@
         <v>280.87</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J49">
         <v>247.33</v>
@@ -1629,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1641,7 +1653,7 @@
         <v>248.07</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G50">
         <v>0.8</v>
@@ -1664,7 +1676,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1676,7 +1688,7 @@
         <v>250.81</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J51">
         <v>247.93</v>
@@ -1690,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1702,7 +1714,7 @@
         <v>238.42</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J52">
         <v>246.75</v>
@@ -1716,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1728,7 +1740,7 @@
         <v>248.87</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J53">
         <v>246.98</v>
@@ -1742,13 +1754,25 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <v>74.70999999999999</v>
       </c>
       <c r="D54">
         <v>347.22</v>
       </c>
+      <c r="E54">
+        <v>272.51</v>
+      </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J54">
+        <v>249.53</v>
+      </c>
+      <c r="K54">
+        <v>284.65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1756,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>88.14</v>
@@ -1768,7 +1792,7 @@
         <v>177.17</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G55">
         <v>0.72</v>
@@ -1780,10 +1804,10 @@
         <v>236.34</v>
       </c>
       <c r="J55">
-        <v>240</v>
+        <v>242.96</v>
       </c>
       <c r="K55">
-        <v>268.28</v>
+        <v>277.05</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1791,7 +1815,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>82.43000000000001</v>
@@ -1803,13 +1827,13 @@
         <v>185.22</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J56">
-        <v>235.02</v>
+        <v>238.14</v>
       </c>
       <c r="K56">
-        <v>264.32</v>
+        <v>272.68</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1817,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>85</v>
@@ -1829,13 +1853,13 @@
         <v>173.77</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J57">
-        <v>229.92</v>
+        <v>233.19</v>
       </c>
       <c r="K57">
-        <v>259.33</v>
+        <v>267.43</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1843,13 +1867,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C58">
+        <v>74.70999999999999</v>
       </c>
       <c r="D58">
         <v>248.05</v>
       </c>
+      <c r="E58">
+        <v>173.34</v>
+      </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J58">
+        <v>228.92</v>
+      </c>
+      <c r="K58">
+        <v>264.9</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1857,13 +1893,25 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>67.29000000000001</v>
       </c>
       <c r="D59">
         <v>215.83</v>
       </c>
+      <c r="E59">
+        <v>148.54</v>
+      </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J59">
+        <v>223.56</v>
+      </c>
+      <c r="K59">
+        <v>261.96</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1871,7 +1919,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1883,7 +1931,7 @@
         <v>263.32</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G60">
         <v>0.66</v>
@@ -1895,10 +1943,10 @@
         <v>243.8</v>
       </c>
       <c r="J60">
-        <v>232.49</v>
+        <v>226.04</v>
       </c>
       <c r="K60">
-        <v>263.95</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1906,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>85</v>
@@ -1918,13 +1966,13 @@
         <v>201.89</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J61">
-        <v>230.3</v>
+        <v>224.62</v>
       </c>
       <c r="K61">
-        <v>262.06</v>
+        <v>263.9</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1932,13 +1980,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C62">
+        <v>74.70999999999999</v>
       </c>
       <c r="D62">
         <v>236.86</v>
       </c>
+      <c r="E62">
+        <v>162.15</v>
+      </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J62">
+        <v>221.15</v>
+      </c>
+      <c r="K62">
+        <v>261.3</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1946,13 +2006,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>67.29000000000001</v>
       </c>
       <c r="D63">
         <v>185.08</v>
       </c>
+      <c r="E63">
+        <v>117.8</v>
+      </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J63">
+        <v>215.71</v>
+      </c>
+      <c r="K63">
+        <v>256.76</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1960,13 +2032,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D64">
         <v>172.15</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1974,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>85</v>
@@ -1986,7 +2058,7 @@
         <v>129.55</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G65">
         <v>0.41</v>
@@ -1998,10 +2070,10 @@
         <v>158.39</v>
       </c>
       <c r="J65">
-        <v>223.58</v>
+        <v>211.4</v>
       </c>
       <c r="K65">
-        <v>254.75</v>
+        <v>251.54</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2009,13 +2081,25 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>74.70999999999999</v>
       </c>
       <c r="D66">
         <v>176.54</v>
       </c>
+      <c r="E66">
+        <v>101.83</v>
+      </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J66">
+        <v>206.19</v>
+      </c>
+      <c r="K66">
+        <v>246.06</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2023,13 +2107,25 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>67.29000000000001</v>
       </c>
       <c r="D67">
         <v>132.3</v>
       </c>
+      <c r="E67">
+        <v>65.02</v>
+      </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J67">
+        <v>199.77</v>
+      </c>
+      <c r="K67">
+        <v>239.26</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2037,13 +2133,13 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D68">
         <v>96.02</v>
       </c>
       <c r="F68" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2051,13 +2147,13 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D69">
         <v>125.97</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2065,13 +2161,19 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <v>74.70999999999999</v>
       </c>
       <c r="D70">
         <v>196.35</v>
       </c>
+      <c r="E70">
+        <v>121.63</v>
+      </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G70">
         <v>0.32</v>
@@ -2081,6 +2183,12 @@
       </c>
       <c r="I70">
         <v>118.98</v>
+      </c>
+      <c r="J70">
+        <v>196.37</v>
+      </c>
+      <c r="K70">
+        <v>235.94</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2088,13 +2196,25 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <v>67.29000000000001</v>
       </c>
       <c r="D71">
         <v>106.53</v>
       </c>
+      <c r="E71">
+        <v>39.24</v>
+      </c>
       <c r="F71" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="J71">
+        <v>189.83</v>
+      </c>
+      <c r="K71">
+        <v>228.54</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2102,13 +2222,13 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D72">
         <v>69.26000000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2116,13 +2236,13 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D73">
         <v>121.82</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2130,13 +2250,183 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D74">
         <v>114.23</v>
       </c>
       <c r="F74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="D75">
+        <v>185.08</v>
+      </c>
+      <c r="E75">
+        <v>117.8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75">
+        <v>1.02</v>
+      </c>
+      <c r="H75">
+        <v>391.89</v>
+      </c>
+      <c r="I75">
+        <v>292.8</v>
+      </c>
+      <c r="J75">
+        <v>186.94</v>
+      </c>
+      <c r="K75">
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76">
+        <v>172.15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
         <v>70</v>
+      </c>
+      <c r="D77">
+        <v>167.97</v>
+      </c>
+      <c r="F77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78">
+        <v>182.36</v>
+      </c>
+      <c r="F78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79">
+        <v>150.98</v>
+      </c>
+      <c r="F79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80">
+        <v>172.15</v>
+      </c>
+      <c r="F80" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80">
+        <v>1.43</v>
+      </c>
+      <c r="H80">
+        <v>443.81</v>
+      </c>
+      <c r="I80">
+        <v>298.62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81">
+        <v>167.97</v>
+      </c>
+      <c r="F81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82">
+        <v>182.36</v>
+      </c>
+      <c r="F82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83">
+        <v>150.98</v>
+      </c>
+      <c r="F83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84">
+        <v>131.64</v>
+      </c>
+      <c r="F84" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="78">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>01 Mar -- 07 Mar 2020</t>
   </si>
   <si>
@@ -238,7 +241,13 @@
     <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
+    <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
     <t>KNN</t>
+  </si>
+  <si>
+    <t>GBM</t>
   </si>
 </sst>
 </file>
@@ -596,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>14.57</v>
@@ -654,7 +663,7 @@
         <v>57.48</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>0.76</v>
@@ -671,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>66.56999999999999</v>
@@ -683,7 +692,7 @@
         <v>5.48</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -691,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>135</v>
@@ -703,7 +712,7 @@
         <v>62.95</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -711,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>137.29</v>
@@ -723,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -731,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>133.57</v>
@@ -743,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -751,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>129.29</v>
@@ -763,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -771,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>96.29000000000001</v>
@@ -783,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -791,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>88.43000000000001</v>
@@ -803,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -811,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>72.29000000000001</v>
@@ -823,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -831,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>61.86</v>
@@ -843,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -851,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>49.71</v>
@@ -863,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -871,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>60.29</v>
@@ -883,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>53.57</v>
@@ -903,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -911,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>67.86</v>
@@ -923,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -931,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>74.43000000000001</v>
@@ -943,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -951,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>111</v>
@@ -963,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -971,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>122.43</v>
@@ -983,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -991,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>149.14</v>
@@ -1003,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1011,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>175.29</v>
@@ -1023,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1031,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>192</v>
@@ -1043,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1051,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>215</v>
@@ -1063,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1071,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>214</v>
@@ -1083,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1091,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>183.14</v>
@@ -1103,7 +1112,7 @@
         <v>108.44</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1111,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>175.43</v>
@@ -1123,7 +1132,7 @@
         <v>99.18000000000001</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1131,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>144.29</v>
@@ -1143,7 +1152,7 @@
         <v>65.73</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1151,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>122.43</v>
@@ -1163,7 +1172,7 @@
         <v>38.96</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1171,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>113.57</v>
@@ -1183,7 +1192,7 @@
         <v>73.78</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1191,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>125</v>
@@ -1203,7 +1212,7 @@
         <v>46.62</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1211,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>155.57</v>
@@ -1223,7 +1232,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1231,7 +1240,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>182.29</v>
@@ -1243,7 +1252,7 @@
         <v>33.68</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1251,7 +1260,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>193.14</v>
@@ -1263,7 +1272,7 @@
         <v>36.6</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1271,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>221</v>
@@ -1283,7 +1292,7 @@
         <v>71.81</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1291,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>261.43</v>
@@ -1303,7 +1312,7 @@
         <v>122.14</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1311,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>313.86</v>
@@ -1323,7 +1332,7 @@
         <v>156.7</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1331,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>363.43</v>
@@ -1343,7 +1352,7 @@
         <v>210.95</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1351,7 +1360,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>424</v>
@@ -1363,7 +1372,7 @@
         <v>271.75</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1371,7 +1380,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>457.43</v>
@@ -1383,7 +1392,7 @@
         <v>294.62</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1391,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>470.43</v>
@@ -1403,7 +1412,7 @@
         <v>313.67</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1411,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>451.29</v>
@@ -1423,7 +1432,7 @@
         <v>283.89</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1431,7 +1440,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>361.43</v>
@@ -1443,7 +1452,7 @@
         <v>178.82</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1451,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>276.14</v>
@@ -1463,7 +1472,7 @@
         <v>51.88</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1471,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>214.14</v>
@@ -1483,7 +1492,7 @@
         <v>25.25</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1491,7 +1500,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>160.86</v>
@@ -1503,7 +1512,7 @@
         <v>116.06</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1511,7 +1520,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>123.43</v>
@@ -1523,7 +1532,7 @@
         <v>196.8</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J45">
         <v>196.8</v>
@@ -1537,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1549,7 +1558,7 @@
         <v>248.37</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J46">
         <v>222.59</v>
@@ -1563,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1575,7 +1584,7 @@
         <v>242.96</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J47">
         <v>229.38</v>
@@ -1589,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>82.43000000000001</v>
@@ -1601,7 +1610,7 @@
         <v>267.65</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J48">
         <v>238.95</v>
@@ -1615,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>85</v>
@@ -1627,7 +1636,7 @@
         <v>280.87</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J49">
         <v>247.33</v>
@@ -1641,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>94.56999999999999</v>
@@ -1653,7 +1662,7 @@
         <v>248.07</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G50">
         <v>0.8</v>
@@ -1676,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>88.14</v>
@@ -1688,7 +1697,7 @@
         <v>250.81</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J51">
         <v>247.93</v>
@@ -1702,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>82.43000000000001</v>
@@ -1714,7 +1723,7 @@
         <v>238.42</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J52">
         <v>246.75</v>
@@ -1728,7 +1737,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>85</v>
@@ -1740,7 +1749,7 @@
         <v>248.87</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J53">
         <v>246.98</v>
@@ -1754,7 +1763,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>74.70999999999999</v>
@@ -1766,7 +1775,7 @@
         <v>272.51</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J54">
         <v>249.53</v>
@@ -1780,7 +1789,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>88.14</v>
@@ -1792,7 +1801,7 @@
         <v>177.17</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G55">
         <v>0.72</v>
@@ -1815,7 +1824,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>82.43000000000001</v>
@@ -1827,7 +1836,7 @@
         <v>185.22</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J56">
         <v>238.14</v>
@@ -1841,7 +1850,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>85</v>
@@ -1853,7 +1862,7 @@
         <v>173.77</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J57">
         <v>233.19</v>
@@ -1867,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>74.70999999999999</v>
@@ -1879,7 +1888,7 @@
         <v>173.34</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J58">
         <v>228.92</v>
@@ -1893,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>67.29000000000001</v>
@@ -1905,7 +1914,7 @@
         <v>148.54</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J59">
         <v>223.56</v>
@@ -1919,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1931,7 +1940,7 @@
         <v>263.32</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G60">
         <v>0.66</v>
@@ -1954,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <v>85</v>
@@ -1966,7 +1975,7 @@
         <v>201.89</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J61">
         <v>224.62</v>
@@ -1980,7 +1989,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62">
         <v>74.70999999999999</v>
@@ -1992,7 +2001,7 @@
         <v>162.15</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J62">
         <v>221.15</v>
@@ -2006,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>67.29000000000001</v>
@@ -2018,7 +2027,7 @@
         <v>117.8</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J63">
         <v>215.71</v>
@@ -2032,13 +2041,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <v>75.14</v>
       </c>
       <c r="D64">
         <v>172.15</v>
       </c>
+      <c r="E64">
+        <v>97.01000000000001</v>
+      </c>
       <c r="F64" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J64">
+        <v>209.78</v>
+      </c>
+      <c r="K64">
+        <v>250.38</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2046,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>85</v>
@@ -2058,7 +2079,7 @@
         <v>129.55</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G65">
         <v>0.41</v>
@@ -2070,10 +2091,10 @@
         <v>158.39</v>
       </c>
       <c r="J65">
-        <v>211.4</v>
+        <v>205.96</v>
       </c>
       <c r="K65">
-        <v>251.54</v>
+        <v>245.71</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2081,7 +2102,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>74.70999999999999</v>
@@ -2093,13 +2114,13 @@
         <v>101.83</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J66">
-        <v>206.19</v>
+        <v>201.22</v>
       </c>
       <c r="K66">
-        <v>246.06</v>
+        <v>240.74</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2107,7 +2128,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>67.29000000000001</v>
@@ -2119,13 +2140,13 @@
         <v>65.02</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J67">
-        <v>199.77</v>
+        <v>195.3</v>
       </c>
       <c r="K67">
-        <v>239.26</v>
+        <v>234.47</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2133,13 +2154,25 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>75.14</v>
       </c>
       <c r="D68">
         <v>96.02</v>
       </c>
+      <c r="E68">
+        <v>20.88</v>
+      </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J68">
+        <v>188.03</v>
+      </c>
+      <c r="K68">
+        <v>225.86</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2147,13 +2180,13 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D69">
         <v>125.97</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2161,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>74.70999999999999</v>
@@ -2173,7 +2206,7 @@
         <v>121.63</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G70">
         <v>0.32</v>
@@ -2185,10 +2218,10 @@
         <v>118.98</v>
       </c>
       <c r="J70">
-        <v>196.37</v>
+        <v>185.38</v>
       </c>
       <c r="K70">
-        <v>235.94</v>
+        <v>223.34</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2196,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>67.29000000000001</v>
@@ -2208,13 +2241,13 @@
         <v>39.24</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J71">
-        <v>189.83</v>
+        <v>179.76</v>
       </c>
       <c r="K71">
-        <v>228.54</v>
+        <v>216.99</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2222,13 +2255,25 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>75.14</v>
       </c>
       <c r="D72">
         <v>69.26000000000001</v>
       </c>
+      <c r="E72">
+        <v>5.88</v>
+      </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J72">
+        <v>173.32</v>
+      </c>
+      <c r="K72">
+        <v>209.25</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2236,13 +2281,13 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D73">
         <v>121.82</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2250,13 +2295,13 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D74">
         <v>114.23</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2264,7 +2309,7 @@
         <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C75">
         <v>67.29000000000001</v>
@@ -2276,7 +2321,7 @@
         <v>117.8</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G75">
         <v>1.02</v>
@@ -2288,10 +2333,10 @@
         <v>292.8</v>
       </c>
       <c r="J75">
-        <v>186.94</v>
+        <v>171.33</v>
       </c>
       <c r="K75">
-        <v>226.4</v>
+        <v>208.02</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2299,13 +2344,25 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>75.14</v>
       </c>
       <c r="D76">
         <v>172.15</v>
       </c>
+      <c r="E76">
+        <v>97.01000000000001</v>
+      </c>
       <c r="F76" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="J76">
+        <v>168.77</v>
+      </c>
+      <c r="K76">
+        <v>205.3</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2313,13 +2370,13 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D77">
         <v>167.97</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2327,13 +2384,13 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D78">
         <v>182.36</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2341,13 +2398,13 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D79">
         <v>150.98</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2355,13 +2412,19 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C80">
+        <v>75.14</v>
       </c>
       <c r="D80">
         <v>172.15</v>
       </c>
+      <c r="E80">
+        <v>97.01000000000001</v>
+      </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G80">
         <v>1.43</v>
@@ -2372,61 +2435,146 @@
       <c r="I80">
         <v>298.62</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="J80">
+        <v>166.38</v>
+      </c>
+      <c r="K80">
+        <v>202.76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D81">
         <v>167.97</v>
       </c>
       <c r="F81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D82">
         <v>182.36</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D83">
         <v>150.98</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D84">
         <v>131.64</v>
       </c>
       <c r="F84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85">
+        <v>0.53</v>
+      </c>
+      <c r="H85">
+        <v>98.67</v>
+      </c>
+      <c r="I85">
+        <v>74.14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
         <v>74</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
